--- a/Analyse/Scénarios/Clément Gaßmann-Prince_Scénario_Utilisateur.xlsx
+++ b/Analyse/Scénarios/Clément Gaßmann-Prince_Scénario_Utilisateur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cagap\Google Drive\ÉCOLE\Informatique\Session 5 - Automne 2018\Projet - VitAdmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cagap\source\repos\GitHub\VitAdmin\Analyse\Scénarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC7409-2528-437A-913E-E538B6EDD609}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06EDEDD-20AC-4F8E-A172-4863D17DABF5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4545" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scénario #1" sheetId="1" r:id="rId1"/>
@@ -23,42 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Cagap gassmann</author>
-  </authors>
-  <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{B6970C78-B8D3-4CB2-802B-BA5F580E3DE6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Clément Gaßmann-Prince:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Il faut que je vérifie s'il y avait une autre option pour le filtre de la recherche d'un lit.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
   <si>
     <t>Titre</t>
   </si>
@@ -108,18 +74,9 @@
     <t>L'utilisateur est un administrateur, donc l'écran principal d'administration s'affiche.</t>
   </si>
   <si>
-    <t>Propose plusieurs options dont: "Gestion structure", "Gestion personnel" et "Gestion patients".</t>
-  </si>
-  <si>
-    <t>Cliquer sur "Gestion structure".</t>
-  </si>
-  <si>
     <t>Affiche l'écran de gestion des départements et du matériel.</t>
   </si>
   <si>
-    <t>Propose, entre autres, une liste des départements, ainsi qu'une liste de contrôles pour la création, la modification et la suppression des départements.</t>
-  </si>
-  <si>
     <t>Cliquer sur l'option de création de département.</t>
   </si>
   <si>
@@ -163,18 +120,6 @@
   </si>
   <si>
     <t>Affiche l'écran de création d'un local.</t>
-  </si>
-  <si>
-    <t>Propose, entre autres, d'entrer le numéro (obligatoire), un état initial {libre (par défaut), occupé, réparation, nettoyage}, une liste d'équipements (avec CRUD), ainsi qu'une liste de lits (avec CRUD).</t>
-  </si>
-  <si>
-    <t>Cliquer sur l'option d'ajout d'un lit.</t>
-  </si>
-  <si>
-    <t>Un lit s'ajoute à la liste des lits</t>
-  </si>
-  <si>
-    <t>Le lit est identifié par le chiffre 1, car il s'agit du premier lit de la chambre.</t>
   </si>
   <si>
     <t>Remplir le champ "Numéro" du local.</t>
@@ -187,51 +132,15 @@
     <t>Ferme l'écran, on revient à l'écran de gestion des départements.</t>
   </si>
   <si>
-    <t>Création d'une visite (d'un séjour) associée au dossier d'un patient.</t>
-  </si>
-  <si>
-    <t>En tant que professionnel de la santé, je veux créer une visite (un séjour) associée au patient x, qui se présente à moi.</t>
-  </si>
-  <si>
     <t>Lancement du programme et connexion (voir Scénario #1, étapes 0-2).</t>
   </si>
   <si>
     <t>L'utilisateur est un professionnel de la santé, donc l'écran principal d'un professionnel de la santé s'affiche.</t>
   </si>
   <si>
-    <t>Propose, entre autres, une liste des patients sous la supervisation du professionnel de la santé, une option « réception d'un patient » et une option « rechercher un lit ».</t>
-  </si>
-  <si>
-    <t>Cliquer sur « réception d'un patient ».</t>
-  </si>
-  <si>
-    <t>Affiche l'écran de réception d'un patient.</t>
-  </si>
-  <si>
-    <t>Propose d'entrer les informations d'un nouveau séjour de patient, soit: le dossier du patient (une barre de recherche et une option « créer »), une liste de symptômes (champs texte), un contexte (champ texte), un diagnostique (champ texte) et une liste de traitements (une liste avec une barre de recherche pour ajouter et un bouton à chaque élement de la liste pour retirer).</t>
-  </si>
-  <si>
     <t>Remplir le champ de recherche de dossier patient.</t>
   </si>
   <si>
-    <t>« Joe Bob » (dossier patient trouvé).</t>
-  </si>
-  <si>
-    <t>Une liste de dossiers s'affiche.</t>
-  </si>
-  <si>
-    <t>Dans une liste déroulante s'affichent le nom des patients dont le nom correspond à la recherche.</t>
-  </si>
-  <si>
-    <t>Cliquer sur le nom du patient.</t>
-  </si>
-  <si>
-    <t>Le nom du patient est affiché à la place du champ de recherche et du bouton « créer ».</t>
-  </si>
-  <si>
-    <t>Propose deux options de plus : « Rechercher » (retour au contrôle précédent) et « Voir dossier » (affiche le dossier du patient).</t>
-  </si>
-  <si>
     <t>Cliquer sur « Ajout » d'un symptôme.</t>
   </si>
   <si>
@@ -247,9 +156,6 @@
     <t>« Douleur sourde au bras droit ».</t>
   </si>
   <si>
-    <t>Appuyer sur la touche « ENTRER ».</t>
-  </si>
-  <si>
     <t>Le symptôme est ajouté au séjour.</t>
   </si>
   <si>
@@ -257,9 +163,6 @@
   </si>
   <si>
     <t>Remplir le champ « Contexte ».</t>
-  </si>
-  <si>
-    <t>« Est tombé s'une falaise en faisant de l'escalade. »</t>
   </si>
   <si>
     <t>Remplir le champ «diagnostique».</t>
@@ -284,48 +187,15 @@
     <t>Cliquer sur le résultat «Radiographie».</t>
   </si>
   <si>
-    <t>Le traitement «Radiographie» est ajouté à la liste des traitements du séjour.</t>
-  </si>
-  <si>
     <t>«Radiographie» s'affiche dans la liste des traitements.</t>
   </si>
   <si>
-    <t>Le séjour du patient est ajouté au système.</t>
-  </si>
-  <si>
-    <t>Tous les champs sont à nouveau vides; on peut créer un séjour pour un autre patient.</t>
-  </si>
-  <si>
     <t>Visualisation et création d'un dossier patient.</t>
   </si>
   <si>
     <t>En tant que professionnel de la santé, je veux voir le dossier du patient x, qui se présente à moi, s’il en a déjà un, et je veux lui en créer un le cas échéant pour qu’il y ait un historique de ses visites.</t>
   </si>
   <si>
-    <t>Lancement du programme, connexion, ouverture du mode «réception» et recherche du dossier d'un patient (voir Scénario #2, étapes 0-3).</t>
-  </si>
-  <si>
-    <t>Cliquer sur l'option «Voir dossier».</t>
-  </si>
-  <si>
-    <t>L'écran du dossier d'un patient s'affiche.</t>
-  </si>
-  <si>
-    <t>Affiche les informations personnelles du patient (nom, num. assurance maladie, adresse, etc. ainsi qu'une photo du patient).</t>
-  </si>
-  <si>
-    <t>Cliquer sur «Fermer».</t>
-  </si>
-  <si>
-    <t>(L'utilisateur s'est aperçu qu'il ne s'agissait pas du bon patient. En réalité, le patient n'avait pas encore de dossier à l'hopitale.)</t>
-  </si>
-  <si>
-    <t>Retour à l'écran précédent (réception d'un patient).</t>
-  </si>
-  <si>
-    <t>Voir scénario #2, étape #1.</t>
-  </si>
-  <si>
     <t>Cliquer sur «Créer» un dossier patient, à côté de la barre de recherche.</t>
   </si>
   <si>
@@ -336,81 +206,213 @@
   </si>
   <si>
     <t>Entrer tous les champs du patient.</t>
+  </si>
+  <si>
+    <t>Liste des actions associées à un patient assigné à un membre du personnel, professionnel de la santé.</t>
+  </si>
+  <si>
+    <t>En tant que professionnel de la santé, je veux voir une liste des choses à faire pour un patient x, qui m’est assigné, pour que mon intervention soit plus rapide.</t>
+  </si>
+  <si>
+    <t>Note: le professionnel de la santé peut voir la liste statique des choses à faire, mais elle peut aussi ajouter des instructions supplémentaires aux prochaines personnes qui s'occuperont du patient, par le billet du fil de commentaires d'un traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir le champ d'ajout d'un nouveau commentaire. </t>
+  </si>
+  <si>
+    <t>«Instructions supplémentaires: M.Bob n'arrive pas à avaler ses pillules même avec de l'eau, il faut les fragmenter.»</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton «Ajouter» / «(&gt;)».</t>
+  </si>
+  <si>
+    <t>Le commentaire est ajouté au fil de commentaires de ce traitement du séjour du patient.</t>
+  </si>
+  <si>
+    <t>Le commentaire est signé (le nom du professionnel de la santé qui l'a écrit est inscrit à son côté).</t>
+  </si>
+  <si>
+    <t>Demande de transfert, affichage de l'état d'un lit.</t>
+  </si>
+  <si>
+    <t>En tant que professionnel de la santé, je veux voir l’état des lits d'un département (qui peuvent être soit libre, occupé, en nettoyage ou en réparation), pour effectuer une demande de transfert du patient x, qui est sous ma supervision.</t>
+  </si>
+  <si>
+    <t>Lancement du programme, connexion et affichage du dossier d'un patient (voir Scénario #4, étapes 0 et 1).</t>
+  </si>
+  <si>
+    <t>Affiche l'écran de transfert d'un patient.</t>
+  </si>
+  <si>
+    <t>Propose, entre autres, une champ de commentaire, une priorité (très faible, faible, moyenne, élevée, très élevée) et un champ de recherche de local avec des champs pour fitrer la recherche (département [liste déroulante], état [liste déroulante] (libre, par défaut) et équipements [liste avec CRUD]).</t>
+  </si>
+  <si>
+    <t>Choisir le département pour la recherche filtrée.</t>
+  </si>
+  <si>
+    <t>Cliquer sur l'ajout d'un équipement.</t>
+  </si>
+  <si>
+    <t>Une fenêtre contextuelle s'affiche.</t>
+  </si>
+  <si>
+    <t>Propose de rechercher un équipement à l'aide d'un champs texte.
+Il y a une liste pour les résultats.</t>
+  </si>
+  <si>
+    <t>Entrer le nom de l'équipement.</t>
+  </si>
+  <si>
+    <t>Le résultat s'affiche dans la liste</t>
+  </si>
+  <si>
+    <t>Cliquer sur le résultat.</t>
+  </si>
+  <si>
+    <t>La fenêtre se ferme, retour à l'écran de transfert d'un patient.</t>
+  </si>
+  <si>
+    <t>Choisir la priorité du transfert.</t>
+  </si>
+  <si>
+    <t>«Faible».</t>
+  </si>
+  <si>
+    <t>Entrer un commentaire.</t>
+  </si>
+  <si>
+    <t>«Membre à analyser: bras droit».</t>
+  </si>
+  <si>
+    <t>Cliquer sur «Confirmer».</t>
+  </si>
+  <si>
+    <t>Retour à l'écran de traitement du patient.</t>
+  </si>
+  <si>
+    <t>Propose plusieurs options dont: "Gestion de l'infrastructure", "Gestion personnel" et "Gestion patients".</t>
+  </si>
+  <si>
+    <t>Cliquer sur "Gestion de l'infrastructure".</t>
+  </si>
+  <si>
+    <t>Propose, entre autres, une liste des départements, ainsi qu'une liste de contrôles pour la création, la modification et la suppression des départements (CRUD). Lorsque l'on sélectionne un département dans la liste, on peut voir un aperçu des chambres et on peut modifier les informations du département.</t>
+  </si>
+  <si>
+    <t>(C'est l'équivalent de sélectionner le département de «Chirurgie» dans la liste, puis de cliquer sur «Modifier le département», à droite)</t>
+  </si>
+  <si>
+    <t>Propose, entre autres, d'entrer le numéro du local (obligatoire), un état initial {libre (par défaut), occupé, réparation, nettoyage}, une liste d'équipements (avec CRUD), ainsi que le nombre de lits.</t>
+  </si>
+  <si>
+    <t>Entrer le nombre de lits.</t>
+  </si>
+  <si>
+    <t>Propose, entre autres, une liste des patients sous la supervisation d'un professionnel de la santé (filtré, par défaut par les informations de l'utilisateur courant) et une barre de recherche d'un patient avec un bouton pour créer un nouveau dossier patient.</t>
+  </si>
+  <si>
+    <t>Dans la liste des résultats s'affichent les patients dont le nom correspond à la recherche, dont le dossier de « Joe Bob ».</t>
+  </si>
+  <si>
+    <t>« Joe Bob » (dossier patient existant).</t>
+  </si>
+  <si>
+    <t>Double cliquer sur le patient, dans la liste des résultats.</t>
+  </si>
+  <si>
+    <t>Cliquer sur « Créer Hospitalisation ».</t>
+  </si>
+  <si>
+    <t>Les détails du dossier patient s'affichent.</t>
+  </si>
+  <si>
+    <t>L'écran de création d'une hospitalisaton s'affiche.</t>
+  </si>
+  <si>
+    <t>Propose d'entrer les informations d'une nouvelle hospitalisation, soit: une liste de symptômes (champs texte), un contexte (champ texte), un diagnostique (champ texte) et une liste de traitements (une liste avec une barre de recherche pour ajouter un traitement et un bouton à chaque traitement de la liste pour le retirer).</t>
+  </si>
+  <si>
+    <t>« Est tombé d'une falaise en faisant de l'escalade. »</t>
+  </si>
+  <si>
+    <t>Appuyer sur la touche «ENTRER».</t>
+  </si>
+  <si>
+    <t>Le traitement «Radiographie» est ajouté à la liste des traitements de l'hospitalisation.</t>
+  </si>
+  <si>
+    <t>L'hospitalisation du patient est ajouté au système.</t>
+  </si>
+  <si>
+    <t>Tous les champs sont à nouveau vides; on peut créer une hospitalisation pour un autre patient.</t>
+  </si>
+  <si>
+    <t>En tant que professionnel de la santé, je veux créer une visite (hospitalisation) associée au patient x, qui se présente à moi.</t>
+  </si>
+  <si>
+    <t>Création d'une hospitalisation associée au dossier d'un patient.</t>
+  </si>
+  <si>
+    <t>Lancement du programme, connexion, ouverture du mode «réception» et recherche du dossier d'un patient (voir Scénario #2, étapes 0-2).</t>
+  </si>
+  <si>
+    <t>Affiche les informations personnelles du patient (nom, genre, date de naissance, num. assurance maladie, téléphone et adresse).</t>
+  </si>
+  <si>
+    <t>(L'utilisateur s'est aperçu qu'il ne s'agissait pas du bon patient. En réalité, le patient n'avait pas encore de dossier à l'hopitale, mais un autre patient portant le même nom existe déjà dans le système.)</t>
+  </si>
+  <si>
+    <t>Voir scénario #2, étape #2.</t>
+  </si>
+  <si>
+    <t>Cliquer sur « Informations ».</t>
+  </si>
+  <si>
+    <t>L'écran des informations d'un patient s'affiche.</t>
+  </si>
+  <si>
+    <t>Cliquer sur «Dossier patient», en haut à gauche (le bouton de retour au menu précédent).</t>
+  </si>
+  <si>
+    <t>Retour à l'écran précédent (détails d'un dossier de patient).</t>
+  </si>
+  <si>
+    <t>Cliquer sur «Liste patient», en haut à gauche (le bouton de retour au menu précédent).</t>
+  </si>
+  <si>
+    <t>Retour à l'écran précédent (liste des patients).</t>
+  </si>
+  <si>
+    <t>Voir scénario #2, étape #0.</t>
   </si>
   <si>
     <t>{
    "Nom": "Joe Bob",
-   "Adresse": "123, rue (…)",
-   (etc.)
+   "Genre": "Masculain",
+   "Assurance maladie": "BOBJ84040123",
+   "Téléphone": "514 297-0423",
+   "Date de naissance": "1984/04/01",
+   "Adresse": "321, rue du Test"
 }</t>
   </si>
   <si>
-    <t>Cliquer sur l'ajout d'une photo pour le dossier du patient.</t>
-  </si>
-  <si>
-    <t>Un explorateur de fichier s'affiche.</t>
-  </si>
-  <si>
-    <t>Choisir la photo du patient et cliquer «Ouvrir».</t>
-  </si>
-  <si>
-    <t>La photo est ajoutée au dossier patient.</t>
-  </si>
-  <si>
-    <t>Liste des actions associées à un patient assigné à un membre du personnel, professionnel de la santé.</t>
-  </si>
-  <si>
-    <t>En tant que professionnel de la santé, je veux voir une liste des choses à faire pour un patient x, qui m’est assigné, pour que mon intervention soit plus rapide.</t>
-  </si>
-  <si>
-    <t>Note: le professionnel de la santé peut voir la liste statique des choses à faire, mais elle peut aussi ajouter des instructions supplémentaires aux prochaines personnes qui s'occuperont du patient, par le billet du fil de commentaires d'un traitement.</t>
-  </si>
-  <si>
-    <t>Double cliquer sur un patient, dans la liste des patients.</t>
-  </si>
-  <si>
-    <t>Le nom du patient est: «Joe Bob».</t>
-  </si>
-  <si>
-    <t>Affiche l'écran de traitement du patient.</t>
-  </si>
-  <si>
-    <t>Affiche la progression du traitement en cours, ainsi qu'une liste des chose à faire (selon le traitement, l'étape du traitement (et le rôle du professionnel de la santé?)) et une liste des commentaires laissés à chaque quart de travail par les professionnels qui se sont occupés du patient. Propose également d'entrer un nouveau commentaire et une option de transfert du patient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplir le champ d'ajout d'un nouveau commentaire. </t>
-  </si>
-  <si>
-    <t>«Instructions supplémentaires: M.Bob n'arrive pas à avaler ses pillules même avec de l'eau, il faut les fragmenter.»</t>
-  </si>
-  <si>
-    <t>Cliquer sur le bouton «Ajouter» / «(&gt;)».</t>
-  </si>
-  <si>
-    <t>Le commentaire est ajouté au fil de commentaires de ce traitement du séjour du patient.</t>
-  </si>
-  <si>
-    <t>Le commentaire est signé (le nom du professionnel de la santé qui l'a écrit est inscrit à son côté).</t>
-  </si>
-  <si>
-    <t>Demande de transfert, affichage de l'état d'un lit.</t>
-  </si>
-  <si>
-    <t>En tant que professionnel de la santé, je veux voir l’état des lits d'un département (qui peuvent être soit libre, occupé, en nettoyage ou en réparation), pour effectuer une demande de transfert du patient x, qui est sous ma supervision.</t>
+    <t>Propose une liste des hospitalisations du patient, ainsi qu'un bouton « Informations » et un bouton « Créer Hospitalisation ».</t>
+  </si>
+  <si>
+    <t>Cliquer sur la dernière hospitalisation au dossier du patient.</t>
+  </si>
+  <si>
+    <t>Affiche l'écran des détails de l'hospitalisation.</t>
+  </si>
+  <si>
+    <t>Affiche la progression du traitement en cours, ainsi qu'une liste des chose à faire (selon le traitement et l'étape courante du traitement) et une liste des commentaires laissés à chaque quart de travail par les professionnels qui se sont occupés du patient. Propose également d'entrer un nouveau commentaire et une option de transfert du patient.</t>
+  </si>
+  <si>
+    <t>Cliquer sur «Demande de transfert».</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Dans ce scénario, l'utilisateur veut effectuer une demande de transfert d'un patient vers un lit dans le département de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>radiologie</t>
     </r>
     <r>
       <rPr>
@@ -419,23 +421,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> qui a l'équipement nécessaire pour effectuer une radiographie.</t>
+      <t>radiologie qui a l'équipement nécessaire pour effectuer une radiographie.</t>
     </r>
-  </si>
-  <si>
-    <t>Lancement du programme, connexion et affichage du dossier d'un patient (voir Scénario #4, étapes 0 et 1).</t>
-  </si>
-  <si>
-    <t>Cliquer sur «Transfert du patient».</t>
-  </si>
-  <si>
-    <t>Affiche l'écran de transfert d'un patient.</t>
-  </si>
-  <si>
-    <t>Propose, entre autres, une champ de commentaire, une priorité (très faible, faible, moyenne, élevée, très élevée) et un champ de recherche de local avec des champs pour fitrer la recherche (département [liste déroulante], état [liste déroulante] (libre, par défaut) et équipements [liste avec CRUD]).</t>
-  </si>
-  <si>
-    <t>Choisir le département pour la recherche filtrée.</t>
   </si>
   <si>
     <r>
@@ -444,7 +431,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -463,26 +449,12 @@
     </r>
   </si>
   <si>
-    <t>Cliquer sur l'ajout d'un équipement.</t>
-  </si>
-  <si>
-    <t>Une fenêtre contextuelle s'affiche.</t>
-  </si>
-  <si>
-    <t>Propose de rechercher un équipement à l'aide d'un champs texte.
-Il y a une liste pour les résultats.</t>
-  </si>
-  <si>
-    <t>Entrer le nom de l'équipement.</t>
-  </si>
-  <si>
     <r>
       <t>«</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -501,22 +473,12 @@
     </r>
   </si>
   <si>
-    <t>Le résultat s'affiche dans la liste</t>
-  </si>
-  <si>
-    <t>Cliquer sur le résultat.</t>
-  </si>
-  <si>
-    <t>La fenêtre se ferme, retour à l'écran de transfert d'un patient.</t>
-  </si>
-  <si>
     <r>
       <t>«</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -534,30 +496,12 @@
       <t>» est maintenant dans la liste des équipements de la recherche filtrée d'un lit.</t>
     </r>
   </si>
-  <si>
-    <t>Choisir la priorité du transfert.</t>
-  </si>
-  <si>
-    <t>«Faible».</t>
-  </si>
-  <si>
-    <t>Entrer un commentaire.</t>
-  </si>
-  <si>
-    <t>«Membre à analyser: bras droit».</t>
-  </si>
-  <si>
-    <t>Cliquer sur «Confirmer».</t>
-  </si>
-  <si>
-    <t>Retour à l'écran de traitement du patient.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,26 +531,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -974,11 +898,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
@@ -987,7 +911,7 @@
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1003,12 +927,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -1038,7 +962,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1051,7 +975,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="63.75" customHeight="1">
+    <row r="8" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1065,187 +989,185 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>92</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="45">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1259,13 +1181,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9491B-1316-4EB5-A5CF-7996203CE6EA}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{85B51FD2-D8BC-5F02-BC54-D36498E1B026}">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -1274,23 +1196,23 @@
     <col min="5" max="5" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1307,237 +1229,239 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,38 +1470,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0266A94-9B9A-4D3D-98AC-F26D7D903888}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" xr3:uid="{8D40DA39-F9E4-552B-8230-FD28E3563DEB}">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1594,199 +1518,199 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="str">
-        <f>'Scénario #2'!D8</f>
-        <v>Le nom du patient est affiché à la place du champ de recherche et du bouton « créer ».</v>
+        <f>'Scénario #2'!D7</f>
+        <v>Les détails du dossier patient s'affichent.</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f>'Scénario #2'!E8</f>
-        <v>Propose deux options de plus : « Rechercher » (retour au contrôle précédent) et « Voir dossier » (affiche le dossier du patient).</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
+        <f>'Scénario #2'!E7</f>
+        <v>Propose une liste des hospitalisations du patient, ainsi qu'un bouton « Informations » et un bouton « Créer Hospitalisation ».</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="30">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="8">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D11" s="6" t="str">
+        <f>D8</f>
+        <v>Retour à l'écran précédent (liste des patients).</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>E8</f>
+        <v>Voir scénario #2, étape #0.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1797,11 +1721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7570F15-3A8E-4048-BA0B-DC1723CBF030}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{7F059718-2EFA-5AD5-9F9A-B903042752D3}">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -1810,28 +1734,28 @@
     <col min="5" max="5" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1848,165 +1772,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75">
+      <c r="D6" s="5" t="str">
+        <f>'Scénario #3'!D5</f>
+        <v>Les détails du dossier patient s'affichent.</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f>'Scénario #3'!E5</f>
+        <v>Propose une liste des hospitalisations du patient, ainsi qu'un bouton « Informations » et un bouton « Créer Hospitalisation ».</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="60">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2018,14 +1942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A765A06E-0D31-422A-B394-8E2D8ACD17B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A765A06E-0D31-422A-B394-8E2D8ACD17B8}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{F7A976AB-54FA-589D-A694-0D47CA8C09FA}">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -2034,28 +1958,28 @@
     <col min="5" max="5" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2072,201 +1996,201 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="str">
         <f>'Scénario #4'!D7</f>
-        <v>Affiche l'écran de traitement du patient.</v>
+        <v>Affiche l'écran des détails de l'hospitalisation.</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>'Scénario #4'!E7</f>
-        <v>Affiche la progression du traitement en cours, ainsi qu'une liste des chose à faire (selon le traitement, l'étape du traitement (et le rôle du professionnel de la santé?)) et une liste des commentaires laissés à chaque quart de travail par les professionnels qui se sont occupés du patient. Propose également d'entrer un nouveau commentaire et une option de transfert du patient.</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
+        <v>Affiche la progression du traitement en cours, ainsi qu'une liste des chose à faire (selon le traitement et l'étape courante du traitement) et une liste des commentaires laissés à chaque quart de travail par les professionnels qui se sont occupés du patient. Propose également d'entrer un nouveau commentaire et une option de transfert du patient.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="45">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2274,6 +2198,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>